--- a/Beetle Data_2020_Final.xlsx
+++ b/Beetle Data_2020_Final.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01C624A-66EE-4660-9B2D-97747927A2F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF5A581-52B2-4175-A383-BD76E9C4F523}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-7200" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="497">
   <si>
     <t>Block</t>
   </si>
@@ -1791,6 +1791,9 @@
   <si>
     <t>C</t>
   </si>
+  <si>
+    <t>not collected via bark/spray</t>
+  </si>
 </sst>
 </file>
 
@@ -1876,7 +1879,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1898,6 +1901,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1952,7 +1961,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2036,6 +2045,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14621,13 +14631,13 @@
   <dimension ref="A1:CV126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
@@ -15248,6 +15258,9 @@
       </c>
     </row>
     <row r="3" spans="1:100" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="B3" s="49" t="s">
+        <v>496</v>
+      </c>
       <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
@@ -15894,7 +15907,7 @@
       <c r="AM5" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="AN5" s="2" t="s">
+      <c r="AN5" s="49" t="s">
         <v>428</v>
       </c>
       <c r="AO5" s="2" t="s">
@@ -15999,7 +16012,7 @@
       <c r="BV5" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="BW5" s="2" t="s">
+      <c r="BW5" s="49" t="s">
         <v>463</v>
       </c>
       <c r="BX5" s="2" t="s">
@@ -52739,5 +52752,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Beetle Data_2020_Final.xlsx
+++ b/Beetle Data_2020_Final.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF5A581-52B2-4175-A383-BD76E9C4F523}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2405D1-536C-4A99-BEF8-A444FB686193}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="2" r:id="rId1"/>
     <sheet name="Resources Needed" sheetId="3" r:id="rId2"/>
     <sheet name="RawData_All" sheetId="1" r:id="rId3"/>
     <sheet name="Herbivore_SprayBark" sheetId="4" r:id="rId4"/>
+    <sheet name="AshSpecialist_SprayBark" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2778" uniqueCount="500">
   <si>
     <t>Block</t>
   </si>
@@ -1794,6 +1795,15 @@
   <si>
     <t>not collected via bark/spray</t>
   </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>Stenolophus</t>
+  </si>
+  <si>
+    <t>S. ochropezus</t>
+  </si>
 </sst>
 </file>
 
@@ -1961,7 +1971,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2046,6 +2056,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2334,7 +2347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD542DE-ACF8-45FC-A04B-3854AE4FEF17}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -2576,7 +2589,7 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
+      <selection pane="bottomRight" activeCell="EO12" sqref="EO12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2588,6 +2601,7 @@
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.42578125" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="10.42578125" customWidth="1"/>
     <col min="163" max="164" width="11.85546875" customWidth="1"/>
     <col min="165" max="165" width="11.85546875" style="44" customWidth="1"/>
     <col min="166" max="176" width="11.85546875" customWidth="1"/>
@@ -3531,20 +3545,20 @@
       <c r="EO2" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="EQ2" s="2" t="s">
+      <c r="EP2" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="ER2" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="ER2" s="2" t="s">
+      <c r="ES2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="ES2" s="2" t="s">
+      <c r="ET2" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="ET2" s="2" t="s">
+      <c r="EU2" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="EU2" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="EV2" s="2" t="s">
         <v>132</v>
@@ -4017,10 +4031,13 @@
       <c r="EO3" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="EQ3" s="3" t="s">
+      <c r="EP3" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="ER3" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="ET3" s="3" t="s">
+      <c r="EU3" s="3" t="s">
         <v>336</v>
       </c>
       <c r="EV3" s="3" t="s">
@@ -4457,23 +4474,23 @@
       <c r="EO4" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="EP4" s="3">
+      <c r="EP4" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="EQ4" s="3">
         <v>22</v>
       </c>
-      <c r="EQ4" s="3">
+      <c r="ER4" s="3">
         <v>23</v>
       </c>
-      <c r="ER4" s="3">
+      <c r="ES4" s="3">
         <v>24</v>
       </c>
-      <c r="ES4" s="3">
+      <c r="ET4" s="3">
         <v>25</v>
       </c>
-      <c r="ET4" s="3" t="s">
+      <c r="EU4" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="EU4" s="3">
-        <v>27</v>
       </c>
       <c r="EV4" s="3" t="s">
         <v>339</v>
@@ -4985,19 +5002,19 @@
         <v>68</v>
       </c>
       <c r="EQ5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="ER5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="ER5" s="6" t="s">
+      <c r="ES5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="ES5" s="6" t="s">
+      <c r="ET5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="ET5" s="6" t="s">
+      <c r="EU5" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="EU5" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="EV5" s="6" t="s">
         <v>68</v>
@@ -5112,7 +5129,7 @@
         <v>360</v>
       </c>
       <c r="F7" s="17">
-        <f t="shared" ref="F7:F212" si="0">SUM(G7:AAC7)</f>
+        <f>SUM(G7:AAC7)</f>
         <v>1</v>
       </c>
       <c r="AN7" s="6">
@@ -5134,7 +5151,7 @@
         <v>360</v>
       </c>
       <c r="F8" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G8:AAC8)</f>
         <v>0</v>
       </c>
       <c r="FI8" s="39"/>
@@ -5153,7 +5170,7 @@
         <v>360</v>
       </c>
       <c r="F9" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G9:AAC9)</f>
         <v>3</v>
       </c>
       <c r="AQ9" s="6">
@@ -5178,7 +5195,7 @@
         <v>360</v>
       </c>
       <c r="F10" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G10:AAC10)</f>
         <v>2</v>
       </c>
       <c r="AQ10" s="6">
@@ -5200,7 +5217,7 @@
         <v>360</v>
       </c>
       <c r="F11" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G11:AAC11)</f>
         <v>1</v>
       </c>
       <c r="AL11" s="6">
@@ -5222,7 +5239,7 @@
         <v>360</v>
       </c>
       <c r="F12" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G12:AAC12)</f>
         <v>2</v>
       </c>
       <c r="H12" s="6">
@@ -5247,7 +5264,7 @@
         <v>360</v>
       </c>
       <c r="F13" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G13:AAC13)</f>
         <v>2</v>
       </c>
       <c r="U13" s="6">
@@ -5272,7 +5289,7 @@
         <v>360</v>
       </c>
       <c r="F14" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G14:AAC14)</f>
         <v>1</v>
       </c>
       <c r="AM14" s="6">
@@ -5294,7 +5311,7 @@
         <v>360</v>
       </c>
       <c r="F15" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G15:AAC15)</f>
         <v>3</v>
       </c>
       <c r="AL15" s="6">
@@ -5319,7 +5336,7 @@
         <v>360</v>
       </c>
       <c r="F16" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G16:AAC16)</f>
         <v>0</v>
       </c>
       <c r="FI16" s="39"/>
@@ -5338,7 +5355,7 @@
         <v>360</v>
       </c>
       <c r="F17" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G17:AAC17)</f>
         <v>1</v>
       </c>
       <c r="AQ17" s="6">
@@ -5360,7 +5377,7 @@
         <v>360</v>
       </c>
       <c r="F18" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G18:AAC18)</f>
         <v>0</v>
       </c>
       <c r="FI18" s="39"/>
@@ -5379,7 +5396,7 @@
         <v>360</v>
       </c>
       <c r="F19" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G19:AAC19)</f>
         <v>9</v>
       </c>
       <c r="AL19" s="6">
@@ -5410,7 +5427,7 @@
         <v>360</v>
       </c>
       <c r="F20" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G20:AAC20)</f>
         <v>1</v>
       </c>
       <c r="AQ20" s="6">
@@ -5432,7 +5449,7 @@
         <v>360</v>
       </c>
       <c r="F21" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G21:AAC21)</f>
         <v>0</v>
       </c>
       <c r="FI21" s="39"/>
@@ -5451,7 +5468,7 @@
         <v>360</v>
       </c>
       <c r="F22" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G22:AAC22)</f>
         <v>1</v>
       </c>
       <c r="AQ22" s="6">
@@ -5473,7 +5490,7 @@
         <v>360</v>
       </c>
       <c r="F23" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G23:AAC23)</f>
         <v>2</v>
       </c>
       <c r="W23" s="6">
@@ -5498,7 +5515,7 @@
         <v>360</v>
       </c>
       <c r="F24" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G24:AAC24)</f>
         <v>0</v>
       </c>
       <c r="FI24" s="39"/>
@@ -5517,7 +5534,7 @@
         <v>360</v>
       </c>
       <c r="F25" s="20">
-        <f t="shared" si="0"/>
+        <f>SUM(G25:AAC25)</f>
         <v>8</v>
       </c>
       <c r="J25" s="22">
@@ -5554,7 +5571,7 @@
         <v>361</v>
       </c>
       <c r="F26" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G26:AAC26)</f>
         <v>6</v>
       </c>
       <c r="AB26" s="1">
@@ -5566,7 +5583,7 @@
       <c r="EE26" s="1">
         <v>1</v>
       </c>
-      <c r="EP26" s="1">
+      <c r="EQ26" s="1">
         <v>1</v>
       </c>
       <c r="FI26" s="42"/>
@@ -5588,7 +5605,7 @@
         <v>361</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G27:AAC27)</f>
         <v>2</v>
       </c>
       <c r="AL27" s="1">
@@ -5613,7 +5630,7 @@
         <v>361</v>
       </c>
       <c r="F28" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G28:AAC28)</f>
         <v>8</v>
       </c>
       <c r="AB28" s="1">
@@ -5650,7 +5667,7 @@
         <v>361</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G29:AAC29)</f>
         <v>3</v>
       </c>
       <c r="DJ29" s="1">
@@ -5659,7 +5676,7 @@
       <c r="EE29" s="1">
         <v>1</v>
       </c>
-      <c r="ES29" s="1">
+      <c r="ET29" s="1">
         <v>1</v>
       </c>
       <c r="FI29" s="42"/>
@@ -5681,7 +5698,7 @@
         <v>361</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G30:AAC30)</f>
         <v>7</v>
       </c>
       <c r="J30" s="1">
@@ -5718,7 +5735,7 @@
         <v>361</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G31:AAC31)</f>
         <v>7</v>
       </c>
       <c r="AJ31" s="1">
@@ -5752,7 +5769,7 @@
         <v>361</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G32:AAC32)</f>
         <v>4</v>
       </c>
       <c r="AB32" s="1">
@@ -5786,7 +5803,7 @@
         <v>361</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G33:AAC33)</f>
         <v>9</v>
       </c>
       <c r="AL33" s="1">
@@ -5823,7 +5840,7 @@
         <v>361</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G34:AAC34)</f>
         <v>3</v>
       </c>
       <c r="AL34" s="1">
@@ -5851,7 +5868,7 @@
         <v>361</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G35:AAC35)</f>
         <v>6</v>
       </c>
       <c r="AL35" s="1">
@@ -5891,7 +5908,7 @@
         <v>361</v>
       </c>
       <c r="F36" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G36:AAC36)</f>
         <v>3</v>
       </c>
       <c r="AL36" s="1">
@@ -5919,7 +5936,7 @@
         <v>361</v>
       </c>
       <c r="F37" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G37:AAC37)</f>
         <v>5</v>
       </c>
       <c r="AL37" s="1">
@@ -5956,7 +5973,7 @@
         <v>361</v>
       </c>
       <c r="F38" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G38:AAC38)</f>
         <v>4</v>
       </c>
       <c r="AL38" s="1">
@@ -5990,7 +6007,7 @@
         <v>361</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G39:AAC39)</f>
         <v>9</v>
       </c>
       <c r="AL39" s="1">
@@ -6030,7 +6047,7 @@
         <v>361</v>
       </c>
       <c r="F40" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G40:AAC40)</f>
         <v>4</v>
       </c>
       <c r="AL40" s="1">
@@ -6061,7 +6078,7 @@
         <v>361</v>
       </c>
       <c r="F41" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G41:AAC41)</f>
         <v>4</v>
       </c>
       <c r="AJ41" s="1">
@@ -6095,7 +6112,7 @@
         <v>361</v>
       </c>
       <c r="F42" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G42:AAC42)</f>
         <v>9</v>
       </c>
       <c r="J42" s="1">
@@ -6141,7 +6158,7 @@
         <v>361</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G43:AAC43)</f>
         <v>4</v>
       </c>
       <c r="J43" s="1">
@@ -6169,7 +6186,7 @@
         <v>361</v>
       </c>
       <c r="F44" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G44:AAC44)</f>
         <v>5</v>
       </c>
       <c r="AL44" s="1">
@@ -6200,7 +6217,7 @@
         <v>361</v>
       </c>
       <c r="F45" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G45:AAC45)</f>
         <v>8</v>
       </c>
       <c r="J45" s="1">
@@ -6243,7 +6260,7 @@
         <v>361</v>
       </c>
       <c r="F46" s="17">
-        <f t="shared" ref="F46:F65" si="1">SUM(G46:AAC46)</f>
+        <f>SUM(G46:AAC46)</f>
         <v>11</v>
       </c>
       <c r="AB46" s="1">
@@ -6289,7 +6306,7 @@
         <v>361</v>
       </c>
       <c r="F47" s="6">
-        <f t="shared" si="1"/>
+        <f>SUM(G47:AAC47)</f>
         <v>9</v>
       </c>
       <c r="AB47" s="1">
@@ -6329,7 +6346,7 @@
         <v>361</v>
       </c>
       <c r="F48" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(G48:AAC48)</f>
         <v>7</v>
       </c>
       <c r="AL48" s="1">
@@ -6360,7 +6377,7 @@
         <v>361</v>
       </c>
       <c r="F49" s="6">
-        <f t="shared" si="1"/>
+        <f>SUM(G49:AAC49)</f>
         <v>7</v>
       </c>
       <c r="AE49" s="1">
@@ -6403,7 +6420,7 @@
         <v>361</v>
       </c>
       <c r="F50" s="6">
-        <f t="shared" si="1"/>
+        <f>SUM(G50:AAC50)</f>
         <v>11</v>
       </c>
       <c r="U50" s="1">
@@ -6449,7 +6466,7 @@
         <v>361</v>
       </c>
       <c r="F51" s="6">
-        <f t="shared" si="1"/>
+        <f>SUM(G51:AAC51)</f>
         <v>9</v>
       </c>
       <c r="AJ51" s="1">
@@ -6489,7 +6506,7 @@
         <v>361</v>
       </c>
       <c r="F52" s="6">
-        <f t="shared" si="1"/>
+        <f>SUM(G52:AAC52)</f>
         <v>2</v>
       </c>
       <c r="AL52" s="1">
@@ -6517,7 +6534,7 @@
         <v>361</v>
       </c>
       <c r="F53" s="6">
-        <f t="shared" si="1"/>
+        <f>SUM(G53:AAC53)</f>
         <v>8</v>
       </c>
       <c r="AL53" s="1">
@@ -6554,7 +6571,7 @@
         <v>361</v>
       </c>
       <c r="F54" s="6">
-        <f t="shared" si="1"/>
+        <f>SUM(G54:AAC54)</f>
         <v>3</v>
       </c>
       <c r="AN54" s="1">
@@ -6585,7 +6602,7 @@
         <v>361</v>
       </c>
       <c r="F55" s="6">
-        <f t="shared" si="1"/>
+        <f>SUM(G55:AAC55)</f>
         <v>4</v>
       </c>
       <c r="AL55" s="1">
@@ -6616,7 +6633,7 @@
         <v>361</v>
       </c>
       <c r="F56" s="6">
-        <f t="shared" si="1"/>
+        <f>SUM(G56:AAC56)</f>
         <v>8</v>
       </c>
       <c r="AL56" s="1">
@@ -6653,7 +6670,7 @@
         <v>361</v>
       </c>
       <c r="F57" s="6">
-        <f t="shared" si="1"/>
+        <f>SUM(G57:AAC57)</f>
         <v>9</v>
       </c>
       <c r="AE57" s="1">
@@ -6696,7 +6713,7 @@
         <v>361</v>
       </c>
       <c r="F58" s="6">
-        <f t="shared" si="1"/>
+        <f>SUM(G58:AAC58)</f>
         <v>8</v>
       </c>
       <c r="AL58" s="1">
@@ -6727,7 +6744,7 @@
         <v>361</v>
       </c>
       <c r="F59" s="6">
-        <f t="shared" si="1"/>
+        <f>SUM(G59:AAC59)</f>
         <v>5</v>
       </c>
       <c r="AJ59" s="1">
@@ -6758,7 +6775,7 @@
         <v>361</v>
       </c>
       <c r="F60" s="6">
-        <f t="shared" si="1"/>
+        <f>SUM(G60:AAC60)</f>
         <v>9</v>
       </c>
       <c r="AQ60" s="1">
@@ -6798,7 +6815,7 @@
         <v>361</v>
       </c>
       <c r="F61" s="6">
-        <f t="shared" si="1"/>
+        <f>SUM(G61:AAC61)</f>
         <v>6</v>
       </c>
       <c r="AB61" s="1">
@@ -6835,7 +6852,7 @@
         <v>361</v>
       </c>
       <c r="F62" s="6">
-        <f t="shared" si="1"/>
+        <f>SUM(G62:AAC62)</f>
         <v>7</v>
       </c>
       <c r="AJ62" s="1">
@@ -6866,7 +6883,7 @@
         <v>361</v>
       </c>
       <c r="F63" s="6">
-        <f t="shared" si="1"/>
+        <f>SUM(G63:AAC63)</f>
         <v>16</v>
       </c>
       <c r="AL63" s="1">
@@ -6930,7 +6947,7 @@
         <v>361</v>
       </c>
       <c r="F64" s="6">
-        <f t="shared" si="1"/>
+        <f>SUM(G64:AAC64)</f>
         <v>5</v>
       </c>
       <c r="AN64" s="1">
@@ -6967,7 +6984,7 @@
         <v>361</v>
       </c>
       <c r="F65" s="20">
-        <f t="shared" si="1"/>
+        <f>SUM(G65:AAC65)</f>
         <v>11</v>
       </c>
       <c r="J65" s="1">
@@ -7017,7 +7034,7 @@
         <v>362</v>
       </c>
       <c r="F66" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G66:AAC66)</f>
         <v>17</v>
       </c>
       <c r="Z66" s="5">
@@ -7060,7 +7077,7 @@
         <v>362</v>
       </c>
       <c r="F67" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G67:AAC67)</f>
         <v>15</v>
       </c>
       <c r="G67" s="6"/>
@@ -7101,7 +7118,7 @@
         <v>362</v>
       </c>
       <c r="F68" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G68:AAC68)</f>
         <v>4</v>
       </c>
       <c r="G68" s="6"/>
@@ -7130,7 +7147,7 @@
         <v>362</v>
       </c>
       <c r="F69" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G69:AAC69)</f>
         <v>14</v>
       </c>
       <c r="G69" s="6"/>
@@ -7168,7 +7185,7 @@
         <v>362</v>
       </c>
       <c r="F70" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G70:AAC70)</f>
         <v>7</v>
       </c>
       <c r="G70" s="6"/>
@@ -7200,7 +7217,7 @@
         <v>362</v>
       </c>
       <c r="F71" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G71:AAC71)</f>
         <v>9</v>
       </c>
       <c r="G71" s="6"/>
@@ -7235,7 +7252,7 @@
         <v>362</v>
       </c>
       <c r="F72" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G72:AAC72)</f>
         <v>8</v>
       </c>
       <c r="G72" s="6"/>
@@ -7267,7 +7284,7 @@
         <v>362</v>
       </c>
       <c r="F73" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G73:AAC73)</f>
         <v>7</v>
       </c>
       <c r="G73" s="6"/>
@@ -7296,7 +7313,7 @@
         <v>362</v>
       </c>
       <c r="F74" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G74:AAC74)</f>
         <v>9</v>
       </c>
       <c r="G74" s="6"/>
@@ -7331,7 +7348,7 @@
         <v>362</v>
       </c>
       <c r="F75" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G75:AAC75)</f>
         <v>5</v>
       </c>
       <c r="G75" s="6"/>
@@ -7366,7 +7383,7 @@
         <v>362</v>
       </c>
       <c r="F76" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G76:AAC76)</f>
         <v>15</v>
       </c>
       <c r="G76" s="6"/>
@@ -7404,7 +7421,7 @@
         <v>362</v>
       </c>
       <c r="F77" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G77:AAC77)</f>
         <v>9</v>
       </c>
       <c r="G77" s="6"/>
@@ -7442,7 +7459,7 @@
         <v>362</v>
       </c>
       <c r="F78" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G78:AAC78)</f>
         <v>10</v>
       </c>
       <c r="G78" s="6"/>
@@ -7477,7 +7494,7 @@
         <v>362</v>
       </c>
       <c r="F79" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G79:AAC79)</f>
         <v>9</v>
       </c>
       <c r="G79" s="6"/>
@@ -7515,7 +7532,7 @@
         <v>362</v>
       </c>
       <c r="F80" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G80:AAC80)</f>
         <v>5</v>
       </c>
       <c r="G80" s="6"/>
@@ -7547,7 +7564,7 @@
         <v>362</v>
       </c>
       <c r="F81" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G81:AAC81)</f>
         <v>6</v>
       </c>
       <c r="G81" s="6"/>
@@ -7579,7 +7596,7 @@
         <v>362</v>
       </c>
       <c r="F82" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G82:AAC82)</f>
         <v>5</v>
       </c>
       <c r="G82" s="6"/>
@@ -7611,7 +7628,7 @@
         <v>362</v>
       </c>
       <c r="F83" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G83:AAC83)</f>
         <v>13</v>
       </c>
       <c r="G83" s="6"/>
@@ -7646,7 +7663,7 @@
         <v>362</v>
       </c>
       <c r="F84" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G84:AAC84)</f>
         <v>20</v>
       </c>
       <c r="G84" s="6"/>
@@ -7678,7 +7695,7 @@
         <v>362</v>
       </c>
       <c r="F85" s="20">
-        <f t="shared" si="0"/>
+        <f>SUM(G85:AAC85)</f>
         <v>10</v>
       </c>
       <c r="W85" s="22">
@@ -7718,7 +7735,7 @@
         <v>360</v>
       </c>
       <c r="F86" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G86:AAC86)</f>
         <v>1</v>
       </c>
       <c r="AL86" s="1">
@@ -7740,7 +7757,7 @@
         <v>360</v>
       </c>
       <c r="F87" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G87:AAC87)</f>
         <v>7</v>
       </c>
       <c r="AL87" s="1">
@@ -7765,7 +7782,7 @@
         <v>360</v>
       </c>
       <c r="F88" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G88:AAC88)</f>
         <v>3</v>
       </c>
       <c r="AM88" s="1">
@@ -7790,7 +7807,7 @@
         <v>360</v>
       </c>
       <c r="F89" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G89:AAC89)</f>
         <v>12</v>
       </c>
       <c r="AB89" s="1">
@@ -7824,7 +7841,7 @@
         <v>360</v>
       </c>
       <c r="F90" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G90:AAC90)</f>
         <v>4</v>
       </c>
       <c r="J90" s="1">
@@ -7855,7 +7872,7 @@
         <v>360</v>
       </c>
       <c r="F91" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G91:AAC91)</f>
         <v>3</v>
       </c>
       <c r="Z91" s="1">
@@ -7883,7 +7900,7 @@
         <v>360</v>
       </c>
       <c r="F92" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G92:AAC92)</f>
         <v>25</v>
       </c>
       <c r="G92" s="1">
@@ -7917,7 +7934,7 @@
         <v>360</v>
       </c>
       <c r="F93" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G93:AAC93)</f>
         <v>1</v>
       </c>
       <c r="AQ93" s="1">
@@ -7939,7 +7956,7 @@
         <v>360</v>
       </c>
       <c r="F94" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G94:AAC94)</f>
         <v>3</v>
       </c>
       <c r="AB94" s="1">
@@ -7967,7 +7984,7 @@
         <v>360</v>
       </c>
       <c r="F95" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G95:AAC95)</f>
         <v>11</v>
       </c>
       <c r="J95" s="1">
@@ -8001,7 +8018,7 @@
         <v>360</v>
       </c>
       <c r="F96" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G96:AAC96)</f>
         <v>3</v>
       </c>
       <c r="AQ96" s="1">
@@ -8026,7 +8043,7 @@
         <v>360</v>
       </c>
       <c r="F97" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G97:AAC97)</f>
         <v>5</v>
       </c>
       <c r="J97" s="1">
@@ -8054,7 +8071,7 @@
         <v>360</v>
       </c>
       <c r="F98" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G98:AAC98)</f>
         <v>8</v>
       </c>
       <c r="J98" s="1">
@@ -8082,7 +8099,7 @@
         <v>360</v>
       </c>
       <c r="F99" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G99:AAC99)</f>
         <v>1</v>
       </c>
       <c r="AK99" s="1">
@@ -8104,7 +8121,7 @@
         <v>360</v>
       </c>
       <c r="F100" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G100:AAC100)</f>
         <v>8</v>
       </c>
       <c r="AQ100" s="1">
@@ -8126,7 +8143,7 @@
         <v>360</v>
       </c>
       <c r="F101" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G101:AAC101)</f>
         <v>0</v>
       </c>
       <c r="FI101" s="42"/>
@@ -8145,7 +8162,7 @@
         <v>360</v>
       </c>
       <c r="F102" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G102:AAC102)</f>
         <v>4</v>
       </c>
       <c r="J102" s="1">
@@ -8173,7 +8190,7 @@
         <v>360</v>
       </c>
       <c r="F103" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G103:AAC103)</f>
         <v>4</v>
       </c>
       <c r="J103" s="1">
@@ -8201,7 +8218,7 @@
         <v>360</v>
       </c>
       <c r="F104" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G104:AAC104)</f>
         <v>10</v>
       </c>
       <c r="J104" s="1">
@@ -8232,7 +8249,7 @@
         <v>360</v>
       </c>
       <c r="F105" s="20">
-        <f t="shared" si="0"/>
+        <f>SUM(G105:AAC105)</f>
         <v>12</v>
       </c>
       <c r="H105" s="22">
@@ -8269,7 +8286,7 @@
         <v>361</v>
       </c>
       <c r="F106" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G106:AAC106)</f>
         <v>1</v>
       </c>
       <c r="AZ106" s="1">
@@ -8294,7 +8311,7 @@
         <v>361</v>
       </c>
       <c r="F107" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G107:AAC107)</f>
         <v>6</v>
       </c>
       <c r="AF107" s="1">
@@ -8334,7 +8351,7 @@
         <v>361</v>
       </c>
       <c r="F108" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G108:AAC108)</f>
         <v>4</v>
       </c>
       <c r="R108" s="1">
@@ -8368,7 +8385,7 @@
         <v>361</v>
       </c>
       <c r="F109" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G109:AAC109)</f>
         <v>8</v>
       </c>
       <c r="AJ109" s="1">
@@ -8411,7 +8428,7 @@
         <v>361</v>
       </c>
       <c r="F110" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G110:AAC110)</f>
         <v>7</v>
       </c>
       <c r="J110" s="1">
@@ -8454,7 +8471,7 @@
         <v>361</v>
       </c>
       <c r="F111" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G111:AAC111)</f>
         <v>6</v>
       </c>
       <c r="AJ111" s="1">
@@ -8488,7 +8505,7 @@
         <v>361</v>
       </c>
       <c r="F112" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G112:AAC112)</f>
         <v>4</v>
       </c>
       <c r="R112" s="1">
@@ -8522,7 +8539,7 @@
         <v>361</v>
       </c>
       <c r="F113" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G113:AAC113)</f>
         <v>6</v>
       </c>
       <c r="J113" s="1">
@@ -8559,7 +8576,7 @@
         <v>361</v>
       </c>
       <c r="F114" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G114:AAC114)</f>
         <v>3</v>
       </c>
       <c r="AJ114" s="1">
@@ -8590,7 +8607,7 @@
         <v>361</v>
       </c>
       <c r="F115" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G115:AAC115)</f>
         <v>7</v>
       </c>
       <c r="J115" s="1">
@@ -8602,7 +8619,7 @@
       <c r="DP115" s="1">
         <v>1</v>
       </c>
-      <c r="ET115" s="1">
+      <c r="EU115" s="1">
         <v>1</v>
       </c>
       <c r="FI115" s="42"/>
@@ -8624,7 +8641,7 @@
         <v>361</v>
       </c>
       <c r="F116" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G116:AAC116)</f>
         <v>8</v>
       </c>
       <c r="AM116" s="1">
@@ -8661,7 +8678,7 @@
         <v>361</v>
       </c>
       <c r="F117" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G117:AAC117)</f>
         <v>1</v>
       </c>
       <c r="AN117" s="1">
@@ -8686,7 +8703,7 @@
         <v>361</v>
       </c>
       <c r="F118" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G118:AAC118)</f>
         <v>2</v>
       </c>
       <c r="AZ118" s="1">
@@ -8714,7 +8731,7 @@
         <v>361</v>
       </c>
       <c r="F119" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G119:AAC119)</f>
         <v>7</v>
       </c>
       <c r="J119" s="1">
@@ -8754,7 +8771,7 @@
         <v>361</v>
       </c>
       <c r="F120" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G120:AAC120)</f>
         <v>4</v>
       </c>
       <c r="AE120" s="1">
@@ -8788,7 +8805,7 @@
         <v>361</v>
       </c>
       <c r="F121" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G121:AAC121)</f>
         <v>4</v>
       </c>
       <c r="AF121" s="1">
@@ -8822,7 +8839,7 @@
         <v>361</v>
       </c>
       <c r="F122" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G122:AAC122)</f>
         <v>3</v>
       </c>
       <c r="R122" s="1">
@@ -8853,7 +8870,7 @@
         <v>361</v>
       </c>
       <c r="F123" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G123:AAC123)</f>
         <v>7</v>
       </c>
       <c r="J123" s="1">
@@ -8890,7 +8907,7 @@
         <v>361</v>
       </c>
       <c r="F124" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G124:AAC124)</f>
         <v>8</v>
       </c>
       <c r="J124" s="1">
@@ -8936,7 +8953,7 @@
         <v>361</v>
       </c>
       <c r="F125" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G125:AAC125)</f>
         <v>24</v>
       </c>
       <c r="J125" s="1">
@@ -8985,7 +9002,7 @@
         <v>361</v>
       </c>
       <c r="F126" s="17">
-        <f t="shared" ref="F126:F145" si="2">SUM(G126:AAC126)</f>
+        <f>SUM(G126:AAC126)</f>
         <v>11</v>
       </c>
       <c r="R126" s="1">
@@ -9031,7 +9048,7 @@
         <v>361</v>
       </c>
       <c r="F127" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(G127:AAC127)</f>
         <v>2</v>
       </c>
       <c r="AZ127" s="1">
@@ -9059,7 +9076,7 @@
         <v>361</v>
       </c>
       <c r="F128" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(G128:AAC128)</f>
         <v>6</v>
       </c>
       <c r="Z128" s="1">
@@ -9099,7 +9116,7 @@
         <v>361</v>
       </c>
       <c r="F129" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(G129:AAC129)</f>
         <v>7</v>
       </c>
       <c r="AJ129" s="1">
@@ -9142,7 +9159,7 @@
         <v>361</v>
       </c>
       <c r="F130" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(G130:AAC130)</f>
         <v>3</v>
       </c>
       <c r="DJ130" s="1">
@@ -9173,7 +9190,7 @@
         <v>361</v>
       </c>
       <c r="F131" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(G131:AAC131)</f>
         <v>5</v>
       </c>
       <c r="R131" s="1">
@@ -9210,7 +9227,7 @@
         <v>361</v>
       </c>
       <c r="F132" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(G132:AAC132)</f>
         <v>10</v>
       </c>
       <c r="AJ132" s="1">
@@ -9256,7 +9273,7 @@
         <v>361</v>
       </c>
       <c r="F133" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(G133:AAC133)</f>
         <v>5</v>
       </c>
       <c r="AD133" s="1">
@@ -9293,7 +9310,7 @@
         <v>361</v>
       </c>
       <c r="F134" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(G134:AAC134)</f>
         <v>5</v>
       </c>
       <c r="AL134" s="1">
@@ -9324,7 +9341,7 @@
         <v>361</v>
       </c>
       <c r="F135" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(G135:AAC135)</f>
         <v>6</v>
       </c>
       <c r="J135" s="1">
@@ -9361,7 +9378,7 @@
         <v>361</v>
       </c>
       <c r="F136" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(G136:AAC136)</f>
         <v>4</v>
       </c>
       <c r="AJ136" s="1">
@@ -9395,7 +9412,7 @@
         <v>361</v>
       </c>
       <c r="F137" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(G137:AAC137)</f>
         <v>5</v>
       </c>
       <c r="AN137" s="1">
@@ -9426,7 +9443,7 @@
         <v>361</v>
       </c>
       <c r="F138" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(G138:AAC138)</f>
         <v>4</v>
       </c>
       <c r="R138" s="1">
@@ -9460,7 +9477,7 @@
         <v>361</v>
       </c>
       <c r="F139" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(G139:AAC139)</f>
         <v>7</v>
       </c>
       <c r="J139" s="1">
@@ -9494,7 +9511,7 @@
         <v>361</v>
       </c>
       <c r="F140" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(G140:AAC140)</f>
         <v>9</v>
       </c>
       <c r="J140" s="1">
@@ -9537,7 +9554,7 @@
         <v>361</v>
       </c>
       <c r="F141" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(G141:AAC141)</f>
         <v>4</v>
       </c>
       <c r="L141" s="1">
@@ -9571,7 +9588,7 @@
         <v>361</v>
       </c>
       <c r="F142" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(G142:AAC142)</f>
         <v>0</v>
       </c>
       <c r="FI142" s="42"/>
@@ -9593,7 +9610,7 @@
         <v>361</v>
       </c>
       <c r="F143" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(G143:AAC143)</f>
         <v>7</v>
       </c>
       <c r="AJ143" s="1">
@@ -9633,7 +9650,7 @@
         <v>361</v>
       </c>
       <c r="F144" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(G144:AAC144)</f>
         <v>17</v>
       </c>
       <c r="J144" s="1">
@@ -9685,7 +9702,7 @@
         <v>361</v>
       </c>
       <c r="F145" s="20">
-        <f t="shared" si="2"/>
+        <f>SUM(G145:AAC145)</f>
         <v>16</v>
       </c>
       <c r="J145" s="1">
@@ -9729,7 +9746,7 @@
         <v>362</v>
       </c>
       <c r="F146" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G146:AAC146)</f>
         <v>7</v>
       </c>
       <c r="J146" s="5">
@@ -9763,7 +9780,7 @@
         <v>362</v>
       </c>
       <c r="F147" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G147:AAC147)</f>
         <v>12</v>
       </c>
       <c r="G147" s="6"/>
@@ -9804,7 +9821,7 @@
         <v>362</v>
       </c>
       <c r="F148" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G148:AAC148)</f>
         <v>0</v>
       </c>
       <c r="G148" s="6"/>
@@ -9824,7 +9841,7 @@
         <v>362</v>
       </c>
       <c r="F149" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G149:AAC149)</f>
         <v>5</v>
       </c>
       <c r="G149" s="6"/>
@@ -9856,7 +9873,7 @@
         <v>362</v>
       </c>
       <c r="F150" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G150:AAC150)</f>
         <v>18</v>
       </c>
       <c r="G150" s="6"/>
@@ -9891,7 +9908,7 @@
         <v>362</v>
       </c>
       <c r="F151" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G151:AAC151)</f>
         <v>10</v>
       </c>
       <c r="G151" s="6"/>
@@ -9923,7 +9940,7 @@
         <v>362</v>
       </c>
       <c r="F152" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G152:AAC152)</f>
         <v>6</v>
       </c>
       <c r="G152" s="6"/>
@@ -9958,7 +9975,7 @@
         <v>362</v>
       </c>
       <c r="F153" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G153:AAC153)</f>
         <v>8</v>
       </c>
       <c r="G153" s="6">
@@ -9992,7 +10009,7 @@
         <v>362</v>
       </c>
       <c r="F154" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G154:AAC154)</f>
         <v>8</v>
       </c>
       <c r="G154" s="6"/>
@@ -10027,7 +10044,7 @@
         <v>362</v>
       </c>
       <c r="F155" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G155:AAC155)</f>
         <v>8</v>
       </c>
       <c r="G155" s="6"/>
@@ -10056,7 +10073,7 @@
         <v>362</v>
       </c>
       <c r="F156" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G156:AAC156)</f>
         <v>9</v>
       </c>
       <c r="G156" s="6"/>
@@ -10091,7 +10108,7 @@
         <v>362</v>
       </c>
       <c r="F157" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G157:AAC157)</f>
         <v>14</v>
       </c>
       <c r="G157" s="6">
@@ -10134,7 +10151,7 @@
         <v>362</v>
       </c>
       <c r="F158" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G158:AAC158)</f>
         <v>14</v>
       </c>
       <c r="G158" s="6"/>
@@ -10166,7 +10183,7 @@
         <v>362</v>
       </c>
       <c r="F159" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G159:AAC159)</f>
         <v>10</v>
       </c>
       <c r="G159" s="6"/>
@@ -10204,7 +10221,7 @@
         <v>362</v>
       </c>
       <c r="F160" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G160:AAC160)</f>
         <v>25</v>
       </c>
       <c r="G160" s="6"/>
@@ -10242,7 +10259,7 @@
         <v>362</v>
       </c>
       <c r="F161" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G161:AAC161)</f>
         <v>11</v>
       </c>
       <c r="G161" s="6"/>
@@ -10286,7 +10303,7 @@
         <v>362</v>
       </c>
       <c r="F162" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G162:AAC162)</f>
         <v>3</v>
       </c>
       <c r="G162" s="6"/>
@@ -10315,7 +10332,7 @@
         <v>362</v>
       </c>
       <c r="F163" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G163:AAC163)</f>
         <v>79</v>
       </c>
       <c r="G163" s="6">
@@ -10349,7 +10366,7 @@
         <v>362</v>
       </c>
       <c r="F164" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G164:AAC164)</f>
         <v>8</v>
       </c>
       <c r="G164" s="6">
@@ -10383,7 +10400,7 @@
         <v>362</v>
       </c>
       <c r="F165" s="20">
-        <f t="shared" si="0"/>
+        <f>SUM(G165:AAC165)</f>
         <v>20</v>
       </c>
       <c r="J165" s="22">
@@ -10429,7 +10446,7 @@
         <v>361</v>
       </c>
       <c r="F166" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G166:AAC166)</f>
         <v>7</v>
       </c>
       <c r="AF166" s="1">
@@ -10469,7 +10486,7 @@
         <v>361</v>
       </c>
       <c r="F167" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G167:AAC167)</f>
         <v>0</v>
       </c>
       <c r="FI167" s="42"/>
@@ -10491,7 +10508,7 @@
         <v>361</v>
       </c>
       <c r="F168" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G168:AAC168)</f>
         <v>7</v>
       </c>
       <c r="J168" s="1">
@@ -10531,7 +10548,7 @@
         <v>361</v>
       </c>
       <c r="F169" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G169:AAC169)</f>
         <v>6</v>
       </c>
       <c r="AE169" s="1">
@@ -10568,7 +10585,7 @@
         <v>361</v>
       </c>
       <c r="F170" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G170:AAC170)</f>
         <v>11</v>
       </c>
       <c r="R170" s="1">
@@ -10608,7 +10625,7 @@
         <v>361</v>
       </c>
       <c r="F171" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G171:AAC171)</f>
         <v>6</v>
       </c>
       <c r="J171" s="1">
@@ -10645,7 +10662,7 @@
         <v>361</v>
       </c>
       <c r="F172" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G172:AAC172)</f>
         <v>7</v>
       </c>
       <c r="AF172" s="1">
@@ -10682,7 +10699,7 @@
         <v>361</v>
       </c>
       <c r="F173" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G173:AAC173)</f>
         <v>6</v>
       </c>
       <c r="J173" s="1">
@@ -10722,7 +10739,7 @@
         <v>361</v>
       </c>
       <c r="F174" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G174:AAC174)</f>
         <v>4</v>
       </c>
       <c r="J174" s="1">
@@ -10756,7 +10773,7 @@
         <v>361</v>
       </c>
       <c r="F175" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G175:AAC175)</f>
         <v>7</v>
       </c>
       <c r="J175" s="1">
@@ -10790,7 +10807,7 @@
         <v>361</v>
       </c>
       <c r="F176" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G176:AAC176)</f>
         <v>5</v>
       </c>
       <c r="AJ176" s="1">
@@ -10824,7 +10841,7 @@
         <v>361</v>
       </c>
       <c r="F177" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G177:AAC177)</f>
         <v>6</v>
       </c>
       <c r="J177" s="1">
@@ -10839,7 +10856,7 @@
       <c r="CR177" s="1">
         <v>1</v>
       </c>
-      <c r="EQ177" s="1">
+      <c r="ER177" s="1">
         <v>1</v>
       </c>
       <c r="FG177" s="1">
@@ -10864,7 +10881,7 @@
         <v>361</v>
       </c>
       <c r="F178" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G178:AAC178)</f>
         <v>6</v>
       </c>
       <c r="AD178" s="1">
@@ -10895,7 +10912,7 @@
         <v>361</v>
       </c>
       <c r="F179" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G179:AAC179)</f>
         <v>8</v>
       </c>
       <c r="J179" s="1">
@@ -10929,7 +10946,7 @@
         <v>361</v>
       </c>
       <c r="F180" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G180:AAC180)</f>
         <v>8</v>
       </c>
       <c r="J180" s="1">
@@ -10966,7 +10983,7 @@
         <v>361</v>
       </c>
       <c r="F181" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G181:AAC181)</f>
         <v>6</v>
       </c>
       <c r="AF181" s="1">
@@ -11000,7 +11017,7 @@
         <v>361</v>
       </c>
       <c r="F182" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G182:AAC182)</f>
         <v>12</v>
       </c>
       <c r="AF182" s="1">
@@ -11046,7 +11063,7 @@
         <v>361</v>
       </c>
       <c r="F183" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G183:AAC183)</f>
         <v>10</v>
       </c>
       <c r="J183" s="1">
@@ -11086,7 +11103,7 @@
         <v>361</v>
       </c>
       <c r="F184" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G184:AAC184)</f>
         <v>12</v>
       </c>
       <c r="J184" s="1">
@@ -11113,7 +11130,7 @@
       <c r="DH184" s="1">
         <v>1</v>
       </c>
-      <c r="ER184" s="1">
+      <c r="ES184" s="1">
         <v>1</v>
       </c>
       <c r="FB184" s="1">
@@ -11141,7 +11158,7 @@
         <v>361</v>
       </c>
       <c r="F185" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G185:AAC185)</f>
         <v>38</v>
       </c>
       <c r="J185" s="6">
@@ -11181,7 +11198,7 @@
         <v>361</v>
       </c>
       <c r="F186" s="17">
-        <f t="shared" ref="F186:F205" si="3">SUM(G186:AAC186)</f>
+        <f>SUM(G186:AAC186)</f>
         <v>4</v>
       </c>
       <c r="AJ186" s="1">
@@ -11215,7 +11232,7 @@
         <v>361</v>
       </c>
       <c r="F187" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(G187:AAC187)</f>
         <v>2</v>
       </c>
       <c r="H187" s="1">
@@ -11243,7 +11260,7 @@
         <v>361</v>
       </c>
       <c r="F188" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(G188:AAC188)</f>
         <v>5</v>
       </c>
       <c r="R188" s="1">
@@ -11277,7 +11294,7 @@
         <v>361</v>
       </c>
       <c r="F189" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(G189:AAC189)</f>
         <v>11</v>
       </c>
       <c r="AF189" s="1">
@@ -11329,7 +11346,7 @@
         <v>361</v>
       </c>
       <c r="F190" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(G190:AAC190)</f>
         <v>19</v>
       </c>
       <c r="Q190" s="1">
@@ -11381,7 +11398,7 @@
         <v>361</v>
       </c>
       <c r="F191" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(G191:AAC191)</f>
         <v>10</v>
       </c>
       <c r="J191" s="1">
@@ -11427,7 +11444,7 @@
         <v>361</v>
       </c>
       <c r="F192" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(G192:AAC192)</f>
         <v>15</v>
       </c>
       <c r="AE192" s="1">
@@ -11476,7 +11493,7 @@
         <v>361</v>
       </c>
       <c r="F193" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(G193:AAC193)</f>
         <v>2</v>
       </c>
       <c r="AN193" s="1">
@@ -11504,7 +11521,7 @@
         <v>361</v>
       </c>
       <c r="F194" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(G194:AAC194)</f>
         <v>13</v>
       </c>
       <c r="J194" s="1">
@@ -11553,7 +11570,7 @@
         <v>361</v>
       </c>
       <c r="F195" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(G195:AAC195)</f>
         <v>14</v>
       </c>
       <c r="J195" s="1">
@@ -11599,7 +11616,7 @@
         <v>361</v>
       </c>
       <c r="F196" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(G196:AAC196)</f>
         <v>8</v>
       </c>
       <c r="AF196" s="1">
@@ -11639,7 +11656,7 @@
         <v>361</v>
       </c>
       <c r="F197" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(G197:AAC197)</f>
         <v>6</v>
       </c>
       <c r="J197" s="1">
@@ -11679,7 +11696,7 @@
         <v>361</v>
       </c>
       <c r="F198" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(G198:AAC198)</f>
         <v>2</v>
       </c>
       <c r="AF198" s="1">
@@ -11704,7 +11721,7 @@
         <v>361</v>
       </c>
       <c r="F199" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(G199:AAC199)</f>
         <v>2</v>
       </c>
       <c r="J199" s="1">
@@ -11732,7 +11749,7 @@
         <v>361</v>
       </c>
       <c r="F200" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(G200:AAC200)</f>
         <v>6</v>
       </c>
       <c r="AF200" s="1">
@@ -11766,7 +11783,7 @@
         <v>361</v>
       </c>
       <c r="F201" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(G201:AAC201)</f>
         <v>10</v>
       </c>
       <c r="J201" s="1">
@@ -11812,7 +11829,7 @@
         <v>361</v>
       </c>
       <c r="F202" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(G202:AAC202)</f>
         <v>11</v>
       </c>
       <c r="J202" s="1">
@@ -11858,7 +11875,7 @@
         <v>361</v>
       </c>
       <c r="F203" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(G203:AAC203)</f>
         <v>19</v>
       </c>
       <c r="J203" s="1">
@@ -11913,7 +11930,7 @@
         <v>361</v>
       </c>
       <c r="F204" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(G204:AAC204)</f>
         <v>8</v>
       </c>
       <c r="AF204" s="1">
@@ -11934,7 +11951,7 @@
       <c r="DE204" s="1">
         <v>1</v>
       </c>
-      <c r="EU204" s="1">
+      <c r="EP204" s="1">
         <v>1</v>
       </c>
       <c r="FI204" s="42"/>
@@ -11959,7 +11976,7 @@
         <v>361</v>
       </c>
       <c r="F205" s="22">
-        <f t="shared" si="3"/>
+        <f>SUM(G205:AAC205)</f>
         <v>53</v>
       </c>
       <c r="J205" s="22">
@@ -12017,7 +12034,7 @@
         <v>360</v>
       </c>
       <c r="F206" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G206:AAC206)</f>
         <v>0</v>
       </c>
       <c r="FI206" s="42"/>
@@ -12036,7 +12053,7 @@
         <v>360</v>
       </c>
       <c r="F207" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G207:AAC207)</f>
         <v>6</v>
       </c>
       <c r="AQ207" s="6">
@@ -12064,7 +12081,7 @@
         <v>360</v>
       </c>
       <c r="F208" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G208:AAC208)</f>
         <v>2</v>
       </c>
       <c r="AQ208" s="6">
@@ -12089,7 +12106,7 @@
         <v>360</v>
       </c>
       <c r="F209" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G209:AAC209)</f>
         <v>2</v>
       </c>
       <c r="X209" s="6">
@@ -12114,7 +12131,7 @@
         <v>360</v>
       </c>
       <c r="F210" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G210:AAC210)</f>
         <v>3</v>
       </c>
       <c r="AJ210" s="6">
@@ -12139,7 +12156,7 @@
         <v>360</v>
       </c>
       <c r="F211" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G211:AAC211)</f>
         <v>1</v>
       </c>
       <c r="AQ211" s="6">
@@ -12161,7 +12178,7 @@
         <v>360</v>
       </c>
       <c r="F212" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(G212:AAC212)</f>
         <v>6</v>
       </c>
       <c r="AL212" s="6">
@@ -12192,7 +12209,7 @@
         <v>360</v>
       </c>
       <c r="F213" s="17">
-        <f t="shared" ref="F213:F246" si="4">SUM(G213:AAC213)</f>
+        <f>SUM(G213:AAC213)</f>
         <v>6</v>
       </c>
       <c r="AQ213" s="6">
@@ -12220,7 +12237,7 @@
         <v>360</v>
       </c>
       <c r="F214" s="17">
-        <f t="shared" si="4"/>
+        <f>SUM(G214:AAC214)</f>
         <v>4</v>
       </c>
       <c r="S214" s="6">
@@ -12251,7 +12268,7 @@
         <v>360</v>
       </c>
       <c r="F215" s="17">
-        <f t="shared" si="4"/>
+        <f>SUM(G215:AAC215)</f>
         <v>20</v>
       </c>
       <c r="J215" s="6">
@@ -12285,7 +12302,7 @@
         <v>360</v>
       </c>
       <c r="F216" s="17">
-        <f t="shared" si="4"/>
+        <f>SUM(G216:AAC216)</f>
         <v>10</v>
       </c>
       <c r="AD216" s="6">
@@ -12316,7 +12333,7 @@
         <v>360</v>
       </c>
       <c r="F217" s="17">
-        <f t="shared" si="4"/>
+        <f>SUM(G217:AAC217)</f>
         <v>2</v>
       </c>
       <c r="AG217" s="6">
@@ -12341,7 +12358,7 @@
         <v>360</v>
       </c>
       <c r="F218" s="17">
-        <f t="shared" si="4"/>
+        <f>SUM(G218:AAC218)</f>
         <v>4</v>
       </c>
       <c r="AN218" s="6">
@@ -12369,7 +12386,7 @@
         <v>360</v>
       </c>
       <c r="F219" s="17">
-        <f t="shared" si="4"/>
+        <f>SUM(G219:AAC219)</f>
         <v>3</v>
       </c>
       <c r="G219" s="6"/>
@@ -12398,7 +12415,7 @@
         <v>360</v>
       </c>
       <c r="F220" s="17">
-        <f t="shared" si="4"/>
+        <f>SUM(G220:AAC220)</f>
         <v>7</v>
       </c>
       <c r="G220" s="6"/>
@@ -12436,7 +12453,7 @@
         <v>360</v>
       </c>
       <c r="F221" s="17">
-        <f t="shared" si="4"/>
+        <f>SUM(G221:AAC221)</f>
         <v>3</v>
       </c>
       <c r="G221" s="6"/>
@@ -12465,7 +12482,7 @@
         <v>360</v>
       </c>
       <c r="F222" s="17">
-        <f t="shared" si="4"/>
+        <f>SUM(G222:AAC222)</f>
         <v>6</v>
       </c>
       <c r="G222" s="6"/>
@@ -12497,7 +12514,7 @@
         <v>360</v>
       </c>
       <c r="F223" s="17">
-        <f t="shared" si="4"/>
+        <f>SUM(G223:AAC223)</f>
         <v>4</v>
       </c>
       <c r="G223" s="6"/>
@@ -12529,7 +12546,7 @@
         <v>360</v>
       </c>
       <c r="F224" s="17">
-        <f t="shared" si="4"/>
+        <f>SUM(G224:AAC224)</f>
         <v>5</v>
       </c>
       <c r="G224" s="6"/>
@@ -12562,7 +12579,7 @@
         <v>360</v>
       </c>
       <c r="F225" s="20">
-        <f t="shared" si="4"/>
+        <f>SUM(G225:AAC225)</f>
         <v>20</v>
       </c>
       <c r="G225" s="6"/>
@@ -12607,7 +12624,7 @@
         <v>362</v>
       </c>
       <c r="F226" s="17">
-        <f t="shared" si="4"/>
+        <f>SUM(G226:AAC226)</f>
         <v>13</v>
       </c>
       <c r="S226" s="5">
@@ -12644,7 +12661,7 @@
         <v>362</v>
       </c>
       <c r="F227" s="17">
-        <f t="shared" si="4"/>
+        <f>SUM(G227:AAC227)</f>
         <v>56</v>
       </c>
       <c r="G227" s="6"/>
@@ -12718,7 +12735,7 @@
         <v>362</v>
       </c>
       <c r="F228" s="17">
-        <f t="shared" si="4"/>
+        <f>SUM(G228:AAC228)</f>
         <v>18</v>
       </c>
       <c r="G228" s="6"/>
@@ -12765,7 +12782,7 @@
         <v>362</v>
       </c>
       <c r="F229" s="17">
-        <f t="shared" si="4"/>
+        <f>SUM(G229:AAC229)</f>
         <v>15</v>
       </c>
       <c r="G229" s="6"/>
@@ -12815,7 +12832,7 @@
         <v>362</v>
       </c>
       <c r="F230" s="17">
-        <f t="shared" si="4"/>
+        <f>SUM(G230:AAC230)</f>
         <v>18</v>
       </c>
       <c r="G230" s="6"/>
@@ -12856,7 +12873,7 @@
         <v>362</v>
       </c>
       <c r="F231" s="17">
-        <f t="shared" si="4"/>
+        <f>SUM(G231:AAC231)</f>
         <v>22</v>
       </c>
       <c r="G231" s="6"/>
@@ -12912,7 +12929,7 @@
         <v>362</v>
       </c>
       <c r="F232" s="17">
-        <f t="shared" si="4"/>
+        <f>SUM(G232:AAC232)</f>
         <v>7</v>
       </c>
       <c r="G232" s="6"/>
@@ -12953,7 +12970,7 @@
         <v>362</v>
       </c>
       <c r="F233" s="17">
-        <f t="shared" si="4"/>
+        <f>SUM(G233:AAC233)</f>
         <v>25</v>
       </c>
       <c r="G233" s="6"/>
@@ -13006,7 +13023,7 @@
         <v>362</v>
       </c>
       <c r="F234" s="17">
-        <f t="shared" si="4"/>
+        <f>SUM(G234:AAC234)</f>
         <v>11</v>
       </c>
       <c r="G234" s="6"/>
@@ -13044,7 +13061,7 @@
         <v>362</v>
       </c>
       <c r="F235" s="17">
-        <f t="shared" si="4"/>
+        <f>SUM(G235:AAC235)</f>
         <v>21</v>
       </c>
       <c r="G235" s="6"/>
@@ -13094,7 +13111,7 @@
         <v>362</v>
       </c>
       <c r="F236" s="17">
-        <f t="shared" si="4"/>
+        <f>SUM(G236:AAC236)</f>
         <v>32</v>
       </c>
       <c r="G236" s="6"/>
@@ -13153,7 +13170,7 @@
         <v>362</v>
       </c>
       <c r="F237" s="17">
-        <f t="shared" si="4"/>
+        <f>SUM(G237:AAC237)</f>
         <v>26</v>
       </c>
       <c r="G237" s="6"/>
@@ -13194,7 +13211,7 @@
         <v>362</v>
       </c>
       <c r="F238" s="17">
-        <f t="shared" si="4"/>
+        <f>SUM(G238:AAC238)</f>
         <v>18</v>
       </c>
       <c r="G238" s="6"/>
@@ -13238,7 +13255,7 @@
         <v>362</v>
       </c>
       <c r="F239" s="17">
-        <f t="shared" si="4"/>
+        <f>SUM(G239:AAC239)</f>
         <v>10</v>
       </c>
       <c r="G239" s="6"/>
@@ -13285,7 +13302,7 @@
         <v>362</v>
       </c>
       <c r="F240" s="17">
-        <f t="shared" si="4"/>
+        <f>SUM(G240:AAC240)</f>
         <v>66</v>
       </c>
       <c r="G240" s="6"/>
@@ -13335,7 +13352,7 @@
         <v>362</v>
       </c>
       <c r="F241" s="17">
-        <f t="shared" si="4"/>
+        <f>SUM(G241:AAC241)</f>
         <v>20</v>
       </c>
       <c r="G241" s="6"/>
@@ -13391,7 +13408,7 @@
         <v>362</v>
       </c>
       <c r="F242" s="17">
-        <f t="shared" si="4"/>
+        <f>SUM(G242:AAC242)</f>
         <v>33</v>
       </c>
       <c r="G242" s="6"/>
@@ -13456,7 +13473,7 @@
         <v>362</v>
       </c>
       <c r="F243" s="17">
-        <f t="shared" si="4"/>
+        <f>SUM(G243:AAC243)</f>
         <v>34</v>
       </c>
       <c r="G243" s="6"/>
@@ -13506,7 +13523,7 @@
         <v>362</v>
       </c>
       <c r="F244" s="17">
-        <f t="shared" si="4"/>
+        <f>SUM(G244:AAC244)</f>
         <v>98</v>
       </c>
       <c r="G244" s="6"/>
@@ -13562,7 +13579,7 @@
         <v>362</v>
       </c>
       <c r="F245" s="17">
-        <f t="shared" si="4"/>
+        <f>SUM(G245:AAC245)</f>
         <v>22</v>
       </c>
       <c r="G245" s="6"/>
@@ -13598,7 +13615,7 @@
     </row>
     <row r="246" spans="1:176" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F246" s="17">
-        <f t="shared" si="4"/>
+        <f>SUM(G246:AAC246)</f>
         <v>2225</v>
       </c>
       <c r="G246" s="6">
@@ -13606,135 +13623,135 @@
         <v>76</v>
       </c>
       <c r="H246" s="6">
-        <f t="shared" ref="H246:BT246" si="5">SUM(H6:H245)</f>
+        <f t="shared" ref="H246:BT246" si="0">SUM(H6:H245)</f>
         <v>35</v>
       </c>
       <c r="I246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>365</v>
       </c>
       <c r="K246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="L246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="N246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="R246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="S246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="T246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="U246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="V246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="W246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="X246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="Y246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="AA246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AB246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="AC246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AD246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="AE246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="AF246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="AG246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AH246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AI246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AJ246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="AK246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="AL246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>183</v>
       </c>
       <c r="AM246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>197</v>
       </c>
       <c r="AN246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="AO246" s="6">
@@ -13742,459 +13759,459 @@
         <v>1</v>
       </c>
       <c r="AP246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AQ246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>236</v>
       </c>
       <c r="AR246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="AS246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AT246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AU246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AV246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AW246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AX246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AY246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AZ246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="BA246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="BB246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="BC246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="BD246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BE246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="BF246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="BG246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="BH246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="BI246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="BJ246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="BK246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="BL246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="BM246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BN246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BO246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BP246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="BQ246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BR246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BS246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="BT246" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="BU246" s="6">
-        <f t="shared" ref="BU246:EF246" si="6">SUM(BU6:BU245)</f>
+        <f t="shared" ref="BU246:EF246" si="1">SUM(BU6:BU245)</f>
         <v>2</v>
       </c>
       <c r="BV246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="BW246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="BX246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="BY246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="BZ246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="CA246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="CB246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="CC246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="CD246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="CE246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="CF246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="CG246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="CH246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="CI246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="CJ246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="CK246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="CL246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="CM246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="CN246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="CO246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="CP246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="CQ246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="CR246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="CS246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="CT246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="CU246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="CV246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="CW246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="CX246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="CY246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="CZ246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="DA246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="DB246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="DC246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="DD246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="DE246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="DF246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="DG246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="DH246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="DI246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="DJ246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="DK246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="DL246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="DM246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="DN246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="DO246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="DP246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="DQ246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="DR246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="DS246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="DT246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="DU246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="DV246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="DW246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="DX246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="DY246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="DZ246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="EA246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="EB246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="EC246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="ED246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="EE246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="EF246" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="EG246" s="6">
-        <f t="shared" ref="EG246:FT246" si="7">SUM(EG6:EG245)</f>
+        <f t="shared" ref="EG246:FT246" si="2">SUM(EG6:EG245)</f>
         <v>1</v>
       </c>
       <c r="EH246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="EI246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="EJ246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="EK246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="EL246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="EM246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="EN246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="EO246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="EP246" s="6">
-        <f t="shared" si="7"/>
+        <f>SUM(EP6:EP245)</f>
         <v>1</v>
       </c>
       <c r="EQ246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="ER246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="ES246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="ET246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="EU246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="EV246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="EW246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="EX246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="EY246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="EZ246" s="6">
@@ -14202,82 +14219,82 @@
         <v>6</v>
       </c>
       <c r="FA246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="FB246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="FC246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="FD246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="FE246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="FF246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="FG246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="FH246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="FI246" s="45">
         <v>1</v>
       </c>
       <c r="FJ246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="FK246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="FL246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="FM246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="FN246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="FO246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="FP246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="FQ246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="FR246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="FS246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="FT246" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -14630,8 +14647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD19EB28-1CC6-4C4B-9AF1-7FE13DFCEB56}">
   <dimension ref="A1:CV126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BI1" sqref="BI1:BI1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52754,4 +52771,4935 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BA7F8C-838C-4040-912D-F5858958F655}">
+  <dimension ref="A1:R125"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q126" sqref="Q126"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="str">
+        <f t="shared" ref="A2:A34" si="0">CONCATENATE(H2,D2,F2,C2)</f>
+        <v>B1HA</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>B2HA</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>B3HA</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="R4" s="48" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>B4HA</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="R5" s="30" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>B5HA</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>S1HA</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2</v>
+      </c>
+      <c r="P7" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>5</v>
+      </c>
+      <c r="R7" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>S2HA</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>S3HA</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>S4HA</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>S5HA</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>B1HB</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7.17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>B2HB</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7.17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>B3HB</v>
+      </c>
+      <c r="B14" s="1">
+        <v>7.17</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>B4HB</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7.17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>B5HB</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7.17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>6</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>S1HB</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>S2HB</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>S3HB</v>
+      </c>
+      <c r="B19" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>S4HB</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>S5HB</v>
+      </c>
+      <c r="B21" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>B1HC</v>
+      </c>
+      <c r="B22" s="1">
+        <v>8.16</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>B2HC</v>
+      </c>
+      <c r="B23" s="1">
+        <v>8.16</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>B3HC</v>
+      </c>
+      <c r="B24" s="1">
+        <v>8.16</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>B4HC</v>
+      </c>
+      <c r="B25" s="1">
+        <v>8.16</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>B5HC</v>
+      </c>
+      <c r="B26" s="1">
+        <v>8.16</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>6</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>S1HC</v>
+      </c>
+      <c r="B27" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>7</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>S2HC</v>
+      </c>
+      <c r="B28" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>S3HC</v>
+      </c>
+      <c r="B29" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>S4HC</v>
+      </c>
+      <c r="B30" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>S5HC</v>
+      </c>
+      <c r="B31" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="50">
+        <f>SUM(I2:I31)</f>
+        <v>1</v>
+      </c>
+      <c r="J32" s="50">
+        <f t="shared" ref="J32:L32" si="1">SUM(J2:J31)</f>
+        <v>2</v>
+      </c>
+      <c r="K32" s="50">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L32" s="50">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>B1MA</v>
+      </c>
+      <c r="B33" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>B2MA</v>
+      </c>
+      <c r="B34" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="str">
+        <f t="shared" ref="A35:A67" si="2">CONCATENATE(H35,D35,F35,C35)</f>
+        <v>B3MA</v>
+      </c>
+      <c r="B35" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>7</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>B4MA</v>
+      </c>
+      <c r="B36" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>B5MA</v>
+      </c>
+      <c r="B37" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5</v>
+      </c>
+      <c r="E37" s="1">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>S1MA</v>
+      </c>
+      <c r="B38" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
+        <v>4</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>S2MA</v>
+      </c>
+      <c r="B39" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>6</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>S3MA</v>
+      </c>
+      <c r="B40" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1">
+        <v>6</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>S4MA</v>
+      </c>
+      <c r="B41" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D41" s="1">
+        <v>4</v>
+      </c>
+      <c r="E41" s="1">
+        <v>7</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>S5MA</v>
+      </c>
+      <c r="B42" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5</v>
+      </c>
+      <c r="E42" s="1">
+        <v>3</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>B1MB</v>
+      </c>
+      <c r="B43" s="1">
+        <v>7.17</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>3</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>B2MB</v>
+      </c>
+      <c r="B44" s="1">
+        <v>7.17</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>3</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>B3MB</v>
+      </c>
+      <c r="B45" s="1">
+        <v>7.17</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1">
+        <v>7</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>B4MB</v>
+      </c>
+      <c r="B46" s="1">
+        <v>7.17</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D46" s="1">
+        <v>4</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>B5MB</v>
+      </c>
+      <c r="B47" s="1">
+        <v>7.17</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D47" s="1">
+        <v>5</v>
+      </c>
+      <c r="E47" s="1">
+        <v>4</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>S1MB</v>
+      </c>
+      <c r="B48" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1">
+        <v>4</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>S2MB</v>
+      </c>
+      <c r="B49" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>6</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>S3MB</v>
+      </c>
+      <c r="B50" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D50" s="1">
+        <v>3</v>
+      </c>
+      <c r="E50" s="1">
+        <v>6</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>S4MB</v>
+      </c>
+      <c r="B51" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D51" s="1">
+        <v>4</v>
+      </c>
+      <c r="E51" s="1">
+        <v>7</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>S5MB</v>
+      </c>
+      <c r="B52" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D52" s="1">
+        <v>5</v>
+      </c>
+      <c r="E52" s="1">
+        <v>3</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>B1MC</v>
+      </c>
+      <c r="B53" s="1">
+        <v>8.16</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1">
+        <v>3</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>B2MC</v>
+      </c>
+      <c r="B54" s="1">
+        <v>8.16</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1">
+        <v>3</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>B3MC</v>
+      </c>
+      <c r="B55" s="1">
+        <v>8.16</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3</v>
+      </c>
+      <c r="E55" s="1">
+        <v>7</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>B4MC</v>
+      </c>
+      <c r="B56" s="1">
+        <v>8.16</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D56" s="1">
+        <v>4</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>B5MC</v>
+      </c>
+      <c r="B57" s="1">
+        <v>8.16</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D57" s="1">
+        <v>5</v>
+      </c>
+      <c r="E57" s="1">
+        <v>4</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>S1MC</v>
+      </c>
+      <c r="B58" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1">
+        <v>4</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
+        <v>1</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>S2MC</v>
+      </c>
+      <c r="B59" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2</v>
+      </c>
+      <c r="E59" s="1">
+        <v>6</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>S3MC</v>
+      </c>
+      <c r="B60" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3</v>
+      </c>
+      <c r="E60" s="1">
+        <v>6</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>S4MC</v>
+      </c>
+      <c r="B61" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D61" s="1">
+        <v>4</v>
+      </c>
+      <c r="E61" s="1">
+        <v>7</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I61" s="1">
+        <v>1</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>S5MC</v>
+      </c>
+      <c r="B62" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D62" s="1">
+        <v>5</v>
+      </c>
+      <c r="E62" s="1">
+        <v>3</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+      <c r="L62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="50">
+        <f>SUM(I33:I62)</f>
+        <v>1</v>
+      </c>
+      <c r="J63" s="50">
+        <f t="shared" ref="J63:L63" si="3">SUM(J33:J62)</f>
+        <v>3</v>
+      </c>
+      <c r="K63" s="50">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L63" s="50">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>B1NA</v>
+      </c>
+      <c r="B64" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>B2NA</v>
+      </c>
+      <c r="B65" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2</v>
+      </c>
+      <c r="E65" s="1">
+        <v>4</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>B3NA</v>
+      </c>
+      <c r="B66" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D66" s="1">
+        <v>3</v>
+      </c>
+      <c r="E66" s="1">
+        <v>3</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0</v>
+      </c>
+      <c r="K66" s="1">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>B4NA</v>
+      </c>
+      <c r="B67" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D67" s="1">
+        <v>4</v>
+      </c>
+      <c r="E67" s="1">
+        <v>4</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0</v>
+      </c>
+      <c r="L67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="str">
+        <f t="shared" ref="A68:A100" si="4">CONCATENATE(H68,D68,F68,C68)</f>
+        <v>B5NA</v>
+      </c>
+      <c r="B68" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D68" s="1">
+        <v>5</v>
+      </c>
+      <c r="E68" s="1">
+        <v>8</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0</v>
+      </c>
+      <c r="L68" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>S1NA</v>
+      </c>
+      <c r="B69" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1">
+        <v>8</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0</v>
+      </c>
+      <c r="L69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>S2NA</v>
+      </c>
+      <c r="B70" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2</v>
+      </c>
+      <c r="E70" s="1">
+        <v>5</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0</v>
+      </c>
+      <c r="L70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>S3NA</v>
+      </c>
+      <c r="B71" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D71" s="1">
+        <v>3</v>
+      </c>
+      <c r="E71" s="1">
+        <v>5</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0</v>
+      </c>
+      <c r="L71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>S4NA</v>
+      </c>
+      <c r="B72" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D72" s="1">
+        <v>4</v>
+      </c>
+      <c r="E72" s="1">
+        <v>6</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>S5NA</v>
+      </c>
+      <c r="B73" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D73" s="1">
+        <v>5</v>
+      </c>
+      <c r="E73" s="1">
+        <v>5</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0</v>
+      </c>
+      <c r="L73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>B1NB</v>
+      </c>
+      <c r="B74" s="1">
+        <v>7.17</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0</v>
+      </c>
+      <c r="L74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>B2NB</v>
+      </c>
+      <c r="B75" s="1">
+        <v>7.17</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D75" s="1">
+        <v>2</v>
+      </c>
+      <c r="E75" s="1">
+        <v>4</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0</v>
+      </c>
+      <c r="L75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>B3NB</v>
+      </c>
+      <c r="B76" s="1">
+        <v>7.17</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D76" s="1">
+        <v>3</v>
+      </c>
+      <c r="E76" s="1">
+        <v>3</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0</v>
+      </c>
+      <c r="L76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>B4NB</v>
+      </c>
+      <c r="B77" s="1">
+        <v>7.17</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D77" s="1">
+        <v>4</v>
+      </c>
+      <c r="E77" s="1">
+        <v>4</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0</v>
+      </c>
+      <c r="L77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>B5NB</v>
+      </c>
+      <c r="B78" s="1">
+        <v>7.17</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D78" s="1">
+        <v>5</v>
+      </c>
+      <c r="E78" s="1">
+        <v>8</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0</v>
+      </c>
+      <c r="L78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>S1NB</v>
+      </c>
+      <c r="B79" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1">
+        <v>8</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0</v>
+      </c>
+      <c r="K79" s="1">
+        <v>0</v>
+      </c>
+      <c r="L79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>S2NB</v>
+      </c>
+      <c r="B80" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D80" s="1">
+        <v>2</v>
+      </c>
+      <c r="E80" s="1">
+        <v>5</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0</v>
+      </c>
+      <c r="J80" s="1">
+        <v>0</v>
+      </c>
+      <c r="K80" s="1">
+        <v>0</v>
+      </c>
+      <c r="L80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>S3NB</v>
+      </c>
+      <c r="B81" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D81" s="1">
+        <v>3</v>
+      </c>
+      <c r="E81" s="1">
+        <v>5</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0</v>
+      </c>
+      <c r="J81" s="1">
+        <v>1</v>
+      </c>
+      <c r="K81" s="1">
+        <v>0</v>
+      </c>
+      <c r="L81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>S4NB</v>
+      </c>
+      <c r="B82" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D82" s="1">
+        <v>4</v>
+      </c>
+      <c r="E82" s="1">
+        <v>6</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0</v>
+      </c>
+      <c r="K82" s="1">
+        <v>0</v>
+      </c>
+      <c r="L82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>S5NB</v>
+      </c>
+      <c r="B83" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D83" s="1">
+        <v>5</v>
+      </c>
+      <c r="E83" s="1">
+        <v>5</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0</v>
+      </c>
+      <c r="J83" s="1">
+        <v>0</v>
+      </c>
+      <c r="K83" s="1">
+        <v>0</v>
+      </c>
+      <c r="L83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>B1NC</v>
+      </c>
+      <c r="B84" s="1">
+        <v>8.16</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1">
+        <v>2</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1">
+        <v>0</v>
+      </c>
+      <c r="K84" s="1">
+        <v>0</v>
+      </c>
+      <c r="L84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>B2NC</v>
+      </c>
+      <c r="B85" s="1">
+        <v>8.16</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D85" s="1">
+        <v>2</v>
+      </c>
+      <c r="E85" s="1">
+        <v>4</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0</v>
+      </c>
+      <c r="K85" s="1">
+        <v>0</v>
+      </c>
+      <c r="L85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>B3NC</v>
+      </c>
+      <c r="B86" s="1">
+        <v>8.16</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D86" s="1">
+        <v>3</v>
+      </c>
+      <c r="E86" s="1">
+        <v>3</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0</v>
+      </c>
+      <c r="L86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>B4NC</v>
+      </c>
+      <c r="B87" s="1">
+        <v>8.16</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D87" s="1">
+        <v>4</v>
+      </c>
+      <c r="E87" s="1">
+        <v>4</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0</v>
+      </c>
+      <c r="L87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>B5NC</v>
+      </c>
+      <c r="B88" s="1">
+        <v>8.16</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D88" s="1">
+        <v>5</v>
+      </c>
+      <c r="E88" s="1">
+        <v>8</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0</v>
+      </c>
+      <c r="J88" s="1">
+        <v>0</v>
+      </c>
+      <c r="K88" s="1">
+        <v>0</v>
+      </c>
+      <c r="L88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>S1NC</v>
+      </c>
+      <c r="B89" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1</v>
+      </c>
+      <c r="E89" s="1">
+        <v>8</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0</v>
+      </c>
+      <c r="J89" s="1">
+        <v>1</v>
+      </c>
+      <c r="K89" s="1">
+        <v>0</v>
+      </c>
+      <c r="L89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>S2NC</v>
+      </c>
+      <c r="B90" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D90" s="1">
+        <v>2</v>
+      </c>
+      <c r="E90" s="1">
+        <v>5</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0</v>
+      </c>
+      <c r="L90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>S3NC</v>
+      </c>
+      <c r="B91" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D91" s="1">
+        <v>3</v>
+      </c>
+      <c r="E91" s="1">
+        <v>5</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0</v>
+      </c>
+      <c r="J91" s="1">
+        <v>2</v>
+      </c>
+      <c r="K91" s="1">
+        <v>0</v>
+      </c>
+      <c r="L91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>S4NC</v>
+      </c>
+      <c r="B92" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D92" s="1">
+        <v>4</v>
+      </c>
+      <c r="E92" s="1">
+        <v>6</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0</v>
+      </c>
+      <c r="K92" s="1">
+        <v>0</v>
+      </c>
+      <c r="L92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>S5NC</v>
+      </c>
+      <c r="B93" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D93" s="1">
+        <v>5</v>
+      </c>
+      <c r="E93" s="1">
+        <v>5</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0</v>
+      </c>
+      <c r="J93" s="1">
+        <v>5</v>
+      </c>
+      <c r="K93" s="1">
+        <v>0</v>
+      </c>
+      <c r="L93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="7"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="50">
+        <f>SUM(I64:I93)</f>
+        <v>0</v>
+      </c>
+      <c r="J94" s="50">
+        <f t="shared" ref="J94:L94" si="5">SUM(J64:J93)</f>
+        <v>9</v>
+      </c>
+      <c r="K94" s="50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L94" s="50">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>B1PA</v>
+      </c>
+      <c r="B95" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1">
+        <v>6</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0</v>
+      </c>
+      <c r="J95" s="1">
+        <v>0</v>
+      </c>
+      <c r="K95" s="1">
+        <v>0</v>
+      </c>
+      <c r="L95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>B2PA</v>
+      </c>
+      <c r="B96" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D96" s="1">
+        <v>2</v>
+      </c>
+      <c r="E96" s="1">
+        <v>7</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0</v>
+      </c>
+      <c r="K96" s="1">
+        <v>0</v>
+      </c>
+      <c r="L96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>B3PA</v>
+      </c>
+      <c r="B97" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D97" s="1">
+        <v>3</v>
+      </c>
+      <c r="E97" s="1">
+        <v>8</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0</v>
+      </c>
+      <c r="K97" s="1">
+        <v>0</v>
+      </c>
+      <c r="L97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>B4PA</v>
+      </c>
+      <c r="B98" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D98" s="1">
+        <v>4</v>
+      </c>
+      <c r="E98" s="1">
+        <v>8</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0</v>
+      </c>
+      <c r="J98" s="1">
+        <v>0</v>
+      </c>
+      <c r="K98" s="1">
+        <v>0</v>
+      </c>
+      <c r="L98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>B5PA</v>
+      </c>
+      <c r="B99" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D99" s="1">
+        <v>5</v>
+      </c>
+      <c r="E99" s="1">
+        <v>2</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0</v>
+      </c>
+      <c r="J99" s="1">
+        <v>0</v>
+      </c>
+      <c r="K99" s="1">
+        <v>0</v>
+      </c>
+      <c r="L99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>S1PA</v>
+      </c>
+      <c r="B100" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D100" s="1">
+        <v>1</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0</v>
+      </c>
+      <c r="J100" s="1">
+        <v>0</v>
+      </c>
+      <c r="K100" s="1">
+        <v>0</v>
+      </c>
+      <c r="L100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="str">
+        <f t="shared" ref="A101:A124" si="6">CONCATENATE(H101,D101,F101,C101)</f>
+        <v>S2PA</v>
+      </c>
+      <c r="B101" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D101" s="1">
+        <v>2</v>
+      </c>
+      <c r="E101" s="1">
+        <v>2</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0</v>
+      </c>
+      <c r="J101" s="1">
+        <v>0</v>
+      </c>
+      <c r="K101" s="1">
+        <v>0</v>
+      </c>
+      <c r="L101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>S3PA</v>
+      </c>
+      <c r="B102" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D102" s="1">
+        <v>3</v>
+      </c>
+      <c r="E102" s="1">
+        <v>4</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I102" s="1">
+        <v>0</v>
+      </c>
+      <c r="J102" s="1">
+        <v>0</v>
+      </c>
+      <c r="K102" s="1">
+        <v>0</v>
+      </c>
+      <c r="L102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>S4PA</v>
+      </c>
+      <c r="B103" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D103" s="1">
+        <v>4</v>
+      </c>
+      <c r="E103" s="1">
+        <v>3</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0</v>
+      </c>
+      <c r="J103" s="1">
+        <v>0</v>
+      </c>
+      <c r="K103" s="1">
+        <v>0</v>
+      </c>
+      <c r="L103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>S5PA</v>
+      </c>
+      <c r="B104" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D104" s="1">
+        <v>5</v>
+      </c>
+      <c r="E104" s="1">
+        <v>7</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I104" s="1">
+        <v>0</v>
+      </c>
+      <c r="J104" s="1">
+        <v>0</v>
+      </c>
+      <c r="K104" s="1">
+        <v>0</v>
+      </c>
+      <c r="L104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>B1PB</v>
+      </c>
+      <c r="B105" s="1">
+        <v>7.17</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D105" s="1">
+        <v>1</v>
+      </c>
+      <c r="E105" s="1">
+        <v>6</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I105" s="1">
+        <v>0</v>
+      </c>
+      <c r="J105" s="1">
+        <v>0</v>
+      </c>
+      <c r="K105" s="1">
+        <v>0</v>
+      </c>
+      <c r="L105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>B2PB</v>
+      </c>
+      <c r="B106" s="1">
+        <v>7.17</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D106" s="1">
+        <v>2</v>
+      </c>
+      <c r="E106" s="1">
+        <v>7</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0</v>
+      </c>
+      <c r="J106" s="1">
+        <v>0</v>
+      </c>
+      <c r="K106" s="1">
+        <v>0</v>
+      </c>
+      <c r="L106" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>B3PB</v>
+      </c>
+      <c r="B107" s="1">
+        <v>7.17</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D107" s="1">
+        <v>3</v>
+      </c>
+      <c r="E107" s="1">
+        <v>8</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0</v>
+      </c>
+      <c r="J107" s="1">
+        <v>0</v>
+      </c>
+      <c r="K107" s="1">
+        <v>0</v>
+      </c>
+      <c r="L107" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>B4PB</v>
+      </c>
+      <c r="B108" s="1">
+        <v>7.17</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D108" s="1">
+        <v>4</v>
+      </c>
+      <c r="E108" s="1">
+        <v>8</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0</v>
+      </c>
+      <c r="J108" s="1">
+        <v>0</v>
+      </c>
+      <c r="K108" s="1">
+        <v>0</v>
+      </c>
+      <c r="L108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>B5PB</v>
+      </c>
+      <c r="B109" s="1">
+        <v>7.17</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D109" s="1">
+        <v>5</v>
+      </c>
+      <c r="E109" s="1">
+        <v>2</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0</v>
+      </c>
+      <c r="J109" s="1">
+        <v>0</v>
+      </c>
+      <c r="K109" s="1">
+        <v>0</v>
+      </c>
+      <c r="L109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>S1PB</v>
+      </c>
+      <c r="B110" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D110" s="1">
+        <v>1</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0</v>
+      </c>
+      <c r="J110" s="1">
+        <v>0</v>
+      </c>
+      <c r="K110" s="1">
+        <v>1</v>
+      </c>
+      <c r="L110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>S2PB</v>
+      </c>
+      <c r="B111" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D111" s="1">
+        <v>2</v>
+      </c>
+      <c r="E111" s="1">
+        <v>2</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I111" s="1">
+        <v>0</v>
+      </c>
+      <c r="J111" s="1">
+        <v>0</v>
+      </c>
+      <c r="K111" s="1">
+        <v>0</v>
+      </c>
+      <c r="L111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>S3PB</v>
+      </c>
+      <c r="B112" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D112" s="1">
+        <v>3</v>
+      </c>
+      <c r="E112" s="1">
+        <v>4</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0</v>
+      </c>
+      <c r="J112" s="1">
+        <v>0</v>
+      </c>
+      <c r="K112" s="1">
+        <v>0</v>
+      </c>
+      <c r="L112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>S4PB</v>
+      </c>
+      <c r="B113" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D113" s="1">
+        <v>4</v>
+      </c>
+      <c r="E113" s="1">
+        <v>3</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0</v>
+      </c>
+      <c r="J113" s="1">
+        <v>0</v>
+      </c>
+      <c r="K113" s="1">
+        <v>0</v>
+      </c>
+      <c r="L113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>S5PB</v>
+      </c>
+      <c r="B114" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D114" s="1">
+        <v>5</v>
+      </c>
+      <c r="E114" s="1">
+        <v>7</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0</v>
+      </c>
+      <c r="J114" s="1">
+        <v>0</v>
+      </c>
+      <c r="K114" s="1">
+        <v>0</v>
+      </c>
+      <c r="L114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>B1PC</v>
+      </c>
+      <c r="B115" s="1">
+        <v>8.16</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D115" s="1">
+        <v>1</v>
+      </c>
+      <c r="E115" s="1">
+        <v>6</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I115" s="1">
+        <v>0</v>
+      </c>
+      <c r="J115" s="1">
+        <v>0</v>
+      </c>
+      <c r="K115" s="1">
+        <v>0</v>
+      </c>
+      <c r="L115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>B2PC</v>
+      </c>
+      <c r="B116" s="1">
+        <v>8.16</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D116" s="1">
+        <v>2</v>
+      </c>
+      <c r="E116" s="1">
+        <v>7</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0</v>
+      </c>
+      <c r="J116" s="1">
+        <v>0</v>
+      </c>
+      <c r="K116" s="1">
+        <v>0</v>
+      </c>
+      <c r="L116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>B3PC</v>
+      </c>
+      <c r="B117" s="1">
+        <v>8.16</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D117" s="1">
+        <v>3</v>
+      </c>
+      <c r="E117" s="1">
+        <v>8</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I117" s="1">
+        <v>0</v>
+      </c>
+      <c r="J117" s="1">
+        <v>0</v>
+      </c>
+      <c r="K117" s="1">
+        <v>0</v>
+      </c>
+      <c r="L117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>B4PC</v>
+      </c>
+      <c r="B118" s="1">
+        <v>8.16</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D118" s="1">
+        <v>4</v>
+      </c>
+      <c r="E118" s="1">
+        <v>8</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I118" s="1">
+        <v>0</v>
+      </c>
+      <c r="J118" s="1">
+        <v>0</v>
+      </c>
+      <c r="K118" s="1">
+        <v>0</v>
+      </c>
+      <c r="L118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>B5PC</v>
+      </c>
+      <c r="B119" s="1">
+        <v>8.16</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D119" s="1">
+        <v>5</v>
+      </c>
+      <c r="E119" s="1">
+        <v>2</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I119" s="1">
+        <v>0</v>
+      </c>
+      <c r="J119" s="1">
+        <v>0</v>
+      </c>
+      <c r="K119" s="1">
+        <v>0</v>
+      </c>
+      <c r="L119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>S1PC</v>
+      </c>
+      <c r="B120" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D120" s="1">
+        <v>1</v>
+      </c>
+      <c r="E120" s="1">
+        <v>1</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I120" s="1">
+        <v>0</v>
+      </c>
+      <c r="J120" s="1">
+        <v>0</v>
+      </c>
+      <c r="K120" s="1">
+        <v>0</v>
+      </c>
+      <c r="L120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>S2PC</v>
+      </c>
+      <c r="B121" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D121" s="1">
+        <v>2</v>
+      </c>
+      <c r="E121" s="1">
+        <v>2</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0</v>
+      </c>
+      <c r="J121" s="1">
+        <v>0</v>
+      </c>
+      <c r="K121" s="1">
+        <v>0</v>
+      </c>
+      <c r="L121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>S3PC</v>
+      </c>
+      <c r="B122" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D122" s="1">
+        <v>3</v>
+      </c>
+      <c r="E122" s="1">
+        <v>4</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I122" s="1">
+        <v>0</v>
+      </c>
+      <c r="J122" s="1">
+        <v>2</v>
+      </c>
+      <c r="K122" s="1">
+        <v>0</v>
+      </c>
+      <c r="L122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>S4PC</v>
+      </c>
+      <c r="B123" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D123" s="1">
+        <v>4</v>
+      </c>
+      <c r="E123" s="1">
+        <v>3</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0</v>
+      </c>
+      <c r="J123" s="1">
+        <v>0</v>
+      </c>
+      <c r="K123" s="1">
+        <v>0</v>
+      </c>
+      <c r="L123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>S5PC</v>
+      </c>
+      <c r="B124" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D124" s="1">
+        <v>5</v>
+      </c>
+      <c r="E124" s="1">
+        <v>7</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I124" s="1">
+        <v>0</v>
+      </c>
+      <c r="J124" s="1">
+        <v>0</v>
+      </c>
+      <c r="K124" s="1">
+        <v>0</v>
+      </c>
+      <c r="L124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I125" s="50">
+        <f>SUM(I95:I124)</f>
+        <v>0</v>
+      </c>
+      <c r="J125" s="50">
+        <f t="shared" ref="J125:L125" si="7">SUM(J95:J124)</f>
+        <v>2</v>
+      </c>
+      <c r="K125" s="50">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L125" s="50">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L129">
+    <sortCondition ref="F2:F129"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>